--- a/pred_ohlcv/54_21/2020-01-25 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>34168.2268</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>33125.00769999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>36784.9322</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>35778.7588</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>35778.7588</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42208.3062</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>47532.02451126999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>47620.78531126999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>49134.52451126999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>49092.07641126999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>48086.61431126999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>48086.59711126999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>48051.58751126999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>47928.41391126999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>48318.41391126999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>48317.15411126999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>49662.72771127</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>49617.61641127</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>50774.18031127</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>51073.97011127</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>52059.15251127</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>50660.44671127</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>50480.36801127</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>45458.42271127</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>40581.02041127</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>17412.24765365001</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>15472.88255365001</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>12190.94775365001</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>14036.01295365001</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>11389.01295365001</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>9045.565153650014</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>10697.24005365001</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>8495.240053650014</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>11499.67455365001</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>9952.674553650013</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>11772.67455365001</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>10759.36675365001</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>17022.05895365001</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>17022.05895365001</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>18173.83285365001</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>15630.83285365001</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>13739.74715365001</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>13739.74715365001</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>13456.74715365001</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>13801.74715365001</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>13801.74715365001</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>10096.74715365001</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>8768.747153650012</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6547.747153650012</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>7127.747153650012</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>7752.747153650012</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>8026.617153650012</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>9602.980753650012</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>9602.980753650012</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>9032.980753650012</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>11247.12395365001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>11304.12395365001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>14599.49275365001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>14599.49275365001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>15190.95155365001</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>16132.68285365001</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>16502.68285365001</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>21037.68285365001</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>19425.79055365001</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>19425.79055365001</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>19528.89055365001</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>16937.85755365001</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>16937.85755365001</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>9762.393453650009</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>11562.82345365001</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10499.82345365001</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>34168.2268</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>33125.00769999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>36784.9322</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>35778.7588</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>35778.7588</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42208.3062</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>47532.02451126999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>47620.78531126999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>49134.52451126999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>49092.07641126999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>48086.61431126999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>48086.59711126999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>48051.58751126999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>47928.41391126999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>48318.41391126999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>48317.15411126999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>49662.72771127</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>49617.61641127</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>50774.18031127</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>51073.97011127</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>52059.15251127</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>50660.44671127</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>50480.36801127</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>7752.747153650012</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>9602.980753650012</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>9032.980753650012</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9052.218553650013</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>15190.95155365001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>16132.68285365001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>16502.68285365001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>21037.68285365001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>19425.79055365001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>19425.79055365001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>19528.89055365001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>16937.85755365001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>16937.85755365001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>9762.393453650009</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>11562.82345365001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10499.82345365001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
